--- a/IPC2024_base2010/indprod_6_2024.xlsx
+++ b/IPC2024_base2010/indprod_6_2024.xlsx
@@ -1272,7 +1272,7 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>166.9976473489605</v>
+        <v>167.1834282806795</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1314,7 +1314,7 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>143.2774460133757</v>
+        <v>143.2670143457023</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1328,7 +1328,7 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>190.3935082046067</v>
+        <v>190.3934494051705</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1342,7 +1342,7 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>198.7216531464126</v>
+        <v>198.7213064433516</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1356,7 +1356,7 @@
         <v>18</v>
       </c>
       <c r="D8">
-        <v>147.5595324458741</v>
+        <v>147.5592462442607</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1370,7 +1370,7 @@
         <v>19</v>
       </c>
       <c r="D9">
-        <v>156.996951374988</v>
+        <v>156.9595544880039</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1384,7 +1384,7 @@
         <v>20</v>
       </c>
       <c r="D10">
-        <v>266.0677341962997</v>
+        <v>266.0838261755756</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1398,7 +1398,7 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>193.1909920004364</v>
+        <v>193.1950333723663</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1412,7 +1412,7 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>135.8294967423628</v>
+        <v>135.8245182070484</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1440,7 +1440,7 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>158.8717472540463</v>
+        <v>158.822652663096</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1454,7 +1454,7 @@
         <v>25</v>
       </c>
       <c r="D15">
-        <v>235.4702173772558</v>
+        <v>235.2953868411201</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1468,7 +1468,7 @@
         <v>26</v>
       </c>
       <c r="D16">
-        <v>239.6882507448434</v>
+        <v>239.6905966333618</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1496,7 +1496,7 @@
         <v>28</v>
       </c>
       <c r="D18">
-        <v>187.9264456525946</v>
+        <v>187.9162933003171</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1510,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>358.0157201067362</v>
+        <v>358.0163877104828</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1524,7 +1524,7 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>206.5431581606914</v>
+        <v>206.560045919885</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1552,7 +1552,7 @@
         <v>32</v>
       </c>
       <c r="D22">
-        <v>183.4522519209842</v>
+        <v>183.4546762402557</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1594,7 +1594,7 @@
         <v>35</v>
       </c>
       <c r="D25">
-        <v>183.9354590685804</v>
+        <v>183.9482311206338</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1608,7 +1608,7 @@
         <v>36</v>
       </c>
       <c r="D26">
-        <v>2289.168597580235</v>
+        <v>2289.166635595255</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>530.2829324367995</v>
+        <v>530.7174265544274</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1790,7 +1790,7 @@
         <v>49</v>
       </c>
       <c r="D39">
-        <v>771.0842160357772</v>
+        <v>771.0765696266882</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1832,7 +1832,7 @@
         <v>52</v>
       </c>
       <c r="D42">
-        <v>608.9213341429983</v>
+        <v>608.9690979657508</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1846,7 +1846,7 @@
         <v>53</v>
       </c>
       <c r="D43">
-        <v>1023.098669714642</v>
+        <v>1020.076101648812</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1902,7 +1902,7 @@
         <v>57</v>
       </c>
       <c r="D47">
-        <v>3014.494709821091</v>
+        <v>2944.444232155228</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1916,7 +1916,7 @@
         <v>58</v>
       </c>
       <c r="D48">
-        <v>1893.79546333204</v>
+        <v>1916.419745274698</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1930,7 +1930,7 @@
         <v>59</v>
       </c>
       <c r="D49">
-        <v>1546.338963387202</v>
+        <v>1545.809750921107</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1944,7 +1944,7 @@
         <v>60</v>
       </c>
       <c r="D50">
-        <v>166.5074451453973</v>
+        <v>166.5084108097651</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2014,7 +2014,7 @@
         <v>65</v>
       </c>
       <c r="D55">
-        <v>172.4257548428751</v>
+        <v>172.4327727436779</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2112,7 +2112,7 @@
         <v>72</v>
       </c>
       <c r="D62">
-        <v>396.8992624037982</v>
+        <v>397.5746342338709</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2140,7 +2140,7 @@
         <v>74</v>
       </c>
       <c r="D64">
-        <v>180.0502524219129</v>
+        <v>180.0442332008217</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2210,7 +2210,7 @@
         <v>79</v>
       </c>
       <c r="D69">
-        <v>143.0296983947905</v>
+        <v>143.0254426502329</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2224,7 +2224,7 @@
         <v>80</v>
       </c>
       <c r="D70">
-        <v>127.1019901677792</v>
+        <v>127.0963429141668</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2238,7 +2238,7 @@
         <v>81</v>
       </c>
       <c r="D71">
-        <v>144.9889705740901</v>
+        <v>144.9876008528637</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2252,7 +2252,7 @@
         <v>82</v>
       </c>
       <c r="D72">
-        <v>220.8011806821434</v>
+        <v>220.8671477991533</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2266,7 +2266,7 @@
         <v>83</v>
       </c>
       <c r="D73">
-        <v>151.8964568383665</v>
+        <v>151.8975694095878</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2294,7 +2294,7 @@
         <v>85</v>
       </c>
       <c r="D75">
-        <v>148.0178223937442</v>
+        <v>148.0182322113718</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2378,7 +2378,7 @@
         <v>91</v>
       </c>
       <c r="D81">
-        <v>128.9711019356863</v>
+        <v>129.217914722913</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2406,7 +2406,7 @@
         <v>93</v>
       </c>
       <c r="D83">
-        <v>120.7341321713096</v>
+        <v>120.7339436268547</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2420,7 +2420,7 @@
         <v>94</v>
       </c>
       <c r="D84">
-        <v>131.3011753007008</v>
+        <v>131.2959777587965</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2434,7 +2434,7 @@
         <v>95</v>
       </c>
       <c r="D85">
-        <v>127.879743230176</v>
+        <v>127.8803646715247</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2448,7 +2448,7 @@
         <v>96</v>
       </c>
       <c r="D86">
-        <v>139.5264825647641</v>
+        <v>139.6218099372197</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2462,7 +2462,7 @@
         <v>97</v>
       </c>
       <c r="D87">
-        <v>121.5217463481576</v>
+        <v>121.5219652503205</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2476,7 +2476,7 @@
         <v>98</v>
       </c>
       <c r="D88">
-        <v>125.4440458054042</v>
+        <v>125.444173563099</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2490,7 +2490,7 @@
         <v>99</v>
       </c>
       <c r="D89">
-        <v>128.0576427033552</v>
+        <v>128.056400082292</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2560,7 +2560,7 @@
         <v>104</v>
       </c>
       <c r="D94">
-        <v>120.6156393456083</v>
+        <v>120.6164422119916</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2630,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="D99">
-        <v>120.1369869879666</v>
+        <v>120.1359975535186</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2644,7 +2644,7 @@
         <v>110</v>
       </c>
       <c r="D100">
-        <v>114.9306837133353</v>
+        <v>114.9306687944433</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2658,7 +2658,7 @@
         <v>111</v>
       </c>
       <c r="D101">
-        <v>127.4636461851839</v>
+        <v>127.4570512349204</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2672,7 +2672,7 @@
         <v>112</v>
       </c>
       <c r="D102">
-        <v>115.4529480027452</v>
+        <v>115.4519966965971</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2784,7 +2784,7 @@
         <v>120</v>
       </c>
       <c r="D110">
-        <v>134.2411388103606</v>
+        <v>134.2323955575173</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2868,7 +2868,7 @@
         <v>126</v>
       </c>
       <c r="D116">
-        <v>130.7935167392059</v>
+        <v>130.785963115953</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2882,7 +2882,7 @@
         <v>127</v>
       </c>
       <c r="D117">
-        <v>109.177649508325</v>
+        <v>108.1230590340248</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2896,7 +2896,7 @@
         <v>128</v>
       </c>
       <c r="D118">
-        <v>341.7321391540814</v>
+        <v>342.1203568966906</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3148,7 +3148,7 @@
         <v>146</v>
       </c>
       <c r="D136">
-        <v>126.3610609005936</v>
+        <v>126.2723005464497</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3330,7 +3330,7 @@
         <v>159</v>
       </c>
       <c r="D149">
-        <v>201.9256303308776</v>
+        <v>201.9243229886938</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3344,7 +3344,7 @@
         <v>160</v>
       </c>
       <c r="D150">
-        <v>135.8707954328724</v>
+        <v>135.2270122213349</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3372,7 +3372,7 @@
         <v>162</v>
       </c>
       <c r="D152">
-        <v>138.8194255591654</v>
+        <v>138.8922465284108</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3386,7 +3386,7 @@
         <v>163</v>
       </c>
       <c r="D153">
-        <v>112.8939835415117</v>
+        <v>112.6358852278609</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3414,7 +3414,7 @@
         <v>165</v>
       </c>
       <c r="D155">
-        <v>108.9442311728449</v>
+        <v>108.9885534315301</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3428,7 +3428,7 @@
         <v>166</v>
       </c>
       <c r="D156">
-        <v>132.7449068573085</v>
+        <v>132.7358191417674</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3456,7 +3456,7 @@
         <v>168</v>
       </c>
       <c r="D158">
-        <v>129.2789986179336</v>
+        <v>129.2796791951303</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3498,7 +3498,7 @@
         <v>171</v>
       </c>
       <c r="D161">
-        <v>135.005672512811</v>
+        <v>135.0004693136095</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3512,7 +3512,7 @@
         <v>172</v>
       </c>
       <c r="D162">
-        <v>157.5860498665682</v>
+        <v>157.58601052859</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3526,7 +3526,7 @@
         <v>173</v>
       </c>
       <c r="D163">
-        <v>138.6480924291366</v>
+        <v>138.6880819473398</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3582,7 +3582,7 @@
         <v>177</v>
       </c>
       <c r="D167">
-        <v>126.9655224289507</v>
+        <v>126.9655263936956</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3596,7 +3596,7 @@
         <v>178</v>
       </c>
       <c r="D168">
-        <v>185.4422585548095</v>
+        <v>185.4421528338464</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3708,7 +3708,7 @@
         <v>186</v>
       </c>
       <c r="D176">
-        <v>125.8333907706454</v>
+        <v>125.6822802690399</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3750,7 +3750,7 @@
         <v>189</v>
       </c>
       <c r="D179">
-        <v>111.8218169164526</v>
+        <v>112.7190530585356</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3764,7 +3764,7 @@
         <v>190</v>
       </c>
       <c r="D180">
-        <v>116.4049092970297</v>
+        <v>116.4035974644615</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3792,7 +3792,7 @@
         <v>192</v>
       </c>
       <c r="D182">
-        <v>135.0084416331526</v>
+        <v>135.0093137441722</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3820,7 +3820,7 @@
         <v>194</v>
       </c>
       <c r="D184">
-        <v>140.1434000451391</v>
+        <v>140.1433934723513</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3834,7 +3834,7 @@
         <v>195</v>
       </c>
       <c r="D185">
-        <v>109.7103793846245</v>
+        <v>109.7098521041067</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3848,7 +3848,7 @@
         <v>196</v>
       </c>
       <c r="D186">
-        <v>109.2418822177186</v>
+        <v>109.2414451512954</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3862,7 +3862,7 @@
         <v>197</v>
       </c>
       <c r="D187">
-        <v>104.1338383580319</v>
+        <v>104.1335608130098</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3876,7 +3876,7 @@
         <v>198</v>
       </c>
       <c r="D188">
-        <v>145.8070424459492</v>
+        <v>145.6654540126504</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3890,7 +3890,7 @@
         <v>199</v>
       </c>
       <c r="D189">
-        <v>137.2733782872447</v>
+        <v>137.2693186506442</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3904,7 +3904,7 @@
         <v>200</v>
       </c>
       <c r="D190">
-        <v>148.2803754669081</v>
+        <v>148.2714278687589</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3918,7 +3918,7 @@
         <v>201</v>
       </c>
       <c r="D191">
-        <v>132.862093230566</v>
+        <v>133.2459544708534</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3932,7 +3932,7 @@
         <v>202</v>
       </c>
       <c r="D192">
-        <v>136.4569512368866</v>
+        <v>136.4314655591644</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3960,7 +3960,7 @@
         <v>204</v>
       </c>
       <c r="D194">
-        <v>151.9278131150523</v>
+        <v>151.883143325136</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4044,7 +4044,7 @@
         <v>210</v>
       </c>
       <c r="D200">
-        <v>92.15526914293621</v>
+        <v>92.21981103933096</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4072,7 +4072,7 @@
         <v>212</v>
       </c>
       <c r="D202">
-        <v>106.6259493127192</v>
+        <v>106.4982565898463</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4142,7 +4142,7 @@
         <v>217</v>
       </c>
       <c r="D207">
-        <v>91.08668649741796</v>
+        <v>90.97112268366149</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4352,7 +4352,7 @@
         <v>232</v>
       </c>
       <c r="D222">
-        <v>174.1506013346833</v>
+        <v>172.9934700707292</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4366,7 +4366,7 @@
         <v>233</v>
       </c>
       <c r="D223">
-        <v>156.4062016519842</v>
+        <v>156.4344366154752</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4422,7 +4422,7 @@
         <v>237</v>
       </c>
       <c r="D227">
-        <v>107.6498132178333</v>
+        <v>107.6460539942669</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4450,7 +4450,7 @@
         <v>239</v>
       </c>
       <c r="D229">
-        <v>167.5845115286354</v>
+        <v>166.418768325067</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4646,7 +4646,7 @@
         <v>253</v>
       </c>
       <c r="D243">
-        <v>113.7130506696863</v>
+        <v>113.854402034893</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4660,7 +4660,7 @@
         <v>254</v>
       </c>
       <c r="D244">
-        <v>155.2419585137446</v>
+        <v>155.2364261223249</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4674,7 +4674,7 @@
         <v>255</v>
       </c>
       <c r="D245">
-        <v>155.9526617488512</v>
+        <v>155.9449658885565</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4688,7 +4688,7 @@
         <v>256</v>
       </c>
       <c r="D246">
-        <v>151.7211800346609</v>
+        <v>151.8366453444718</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4772,7 +4772,7 @@
         <v>262</v>
       </c>
       <c r="D252">
-        <v>135.6380988679478</v>
+        <v>135.6349281790088</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4786,7 +4786,7 @@
         <v>263</v>
       </c>
       <c r="D253">
-        <v>127.3873571015817</v>
+        <v>127.388647961327</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4856,7 +4856,7 @@
         <v>268</v>
       </c>
       <c r="D258">
-        <v>133.3317914597734</v>
+        <v>133.4720509447316</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4870,7 +4870,7 @@
         <v>269</v>
       </c>
       <c r="D259">
-        <v>167.7165509447662</v>
+        <v>167.6304182131136</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4898,7 +4898,7 @@
         <v>271</v>
       </c>
       <c r="D261">
-        <v>143.8035172363516</v>
+        <v>143.8041564260741</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4940,7 +4940,7 @@
         <v>274</v>
       </c>
       <c r="D264">
-        <v>131.1890910902042</v>
+        <v>131.1872929687341</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5010,7 +5010,7 @@
         <v>279</v>
       </c>
       <c r="D269">
-        <v>199.3244455088469</v>
+        <v>199.3229965072651</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5178,7 +5178,7 @@
         <v>12</v>
       </c>
       <c r="D281">
-        <v>185.7621765248687</v>
+        <v>186.4906796014149</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5220,7 +5220,7 @@
         <v>15</v>
       </c>
       <c r="D284">
-        <v>153.4990029669171</v>
+        <v>153.4463770851736</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5276,7 +5276,7 @@
         <v>19</v>
       </c>
       <c r="D288">
-        <v>184.0713965316449</v>
+        <v>183.9411681400477</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5304,7 +5304,7 @@
         <v>21</v>
       </c>
       <c r="D290">
-        <v>183.7543874211355</v>
+        <v>183.7682739503119</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5430,7 +5430,7 @@
         <v>30</v>
       </c>
       <c r="D299">
-        <v>171.3390903574106</v>
+        <v>171.3969096643682</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5500,7 +5500,7 @@
         <v>35</v>
       </c>
       <c r="D304">
-        <v>167.2010013449095</v>
+        <v>167.2315935332429</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5514,7 +5514,7 @@
         <v>36</v>
       </c>
       <c r="D305">
-        <v>976.9809507411076</v>
+        <v>976.9724571378099</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -5542,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="D307">
-        <v>349.0770251125053</v>
+        <v>348.9743312392142</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5752,7 +5752,7 @@
         <v>53</v>
       </c>
       <c r="D322">
-        <v>623.8958774289753</v>
+        <v>611.2361965806409</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -5808,7 +5808,7 @@
         <v>57</v>
       </c>
       <c r="D326">
-        <v>1299.552599297668</v>
+        <v>1124.660396879286</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -5822,7 +5822,7 @@
         <v>58</v>
       </c>
       <c r="D327">
-        <v>710.9833984166243</v>
+        <v>757.2928816336206</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -5836,7 +5836,7 @@
         <v>59</v>
       </c>
       <c r="D328">
-        <v>512.632207174835</v>
+        <v>510.5030311042763</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -5920,7 +5920,7 @@
         <v>65</v>
       </c>
       <c r="D334">
-        <v>191.1570311518949</v>
+        <v>191.1755775846682</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6284,7 +6284,7 @@
         <v>91</v>
       </c>
       <c r="D360">
-        <v>113.5414225582901</v>
+        <v>114.6039276614417</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6354,7 +6354,7 @@
         <v>96</v>
       </c>
       <c r="D365">
-        <v>138.1434310167811</v>
+        <v>138.4259751550396</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6550,7 +6550,7 @@
         <v>110</v>
       </c>
       <c r="D379">
-        <v>110.4997551048423</v>
+        <v>110.4997388681182</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -6564,7 +6564,7 @@
         <v>111</v>
       </c>
       <c r="D380">
-        <v>129.8409680152653</v>
+        <v>129.8288286815342</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -6578,7 +6578,7 @@
         <v>112</v>
       </c>
       <c r="D381">
-        <v>106.7302642177662</v>
+        <v>106.7278783217958</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -6690,7 +6690,7 @@
         <v>120</v>
       </c>
       <c r="D389">
-        <v>141.9849958257119</v>
+        <v>141.9256321532038</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -6788,7 +6788,7 @@
         <v>127</v>
       </c>
       <c r="D396">
-        <v>114.6520639705577</v>
+        <v>112.9657592504865</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -6802,7 +6802,7 @@
         <v>128</v>
       </c>
       <c r="D397">
-        <v>241.6109350435756</v>
+        <v>242.8465056048908</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7278,7 +7278,7 @@
         <v>162</v>
       </c>
       <c r="D431">
-        <v>147.709502703215</v>
+        <v>147.9211873767903</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7320,7 +7320,7 @@
         <v>165</v>
       </c>
       <c r="D434">
-        <v>112.2943128724067</v>
+        <v>112.5376788257804</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7432,7 +7432,7 @@
         <v>173</v>
       </c>
       <c r="D442">
-        <v>140.4596192825895</v>
+        <v>140.4709265242394</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -7614,7 +7614,7 @@
         <v>186</v>
       </c>
       <c r="D455">
-        <v>120.9752309810511</v>
+        <v>120.545721262728</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -7656,7 +7656,7 @@
         <v>189</v>
       </c>
       <c r="D458">
-        <v>111.7210482856334</v>
+        <v>112.103487458689</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -7670,7 +7670,7 @@
         <v>190</v>
       </c>
       <c r="D459">
-        <v>120.043236160552</v>
+        <v>120.0337796966468</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -7740,7 +7740,7 @@
         <v>195</v>
       </c>
       <c r="D464">
-        <v>110.8159766853245</v>
+        <v>110.8153611386166</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -7754,7 +7754,7 @@
         <v>196</v>
       </c>
       <c r="D465">
-        <v>110.81200795899</v>
+        <v>110.811392434327</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -7768,7 +7768,7 @@
         <v>197</v>
       </c>
       <c r="D466">
-        <v>105.910371524397</v>
+        <v>105.9097677452567</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -7782,7 +7782,7 @@
         <v>198</v>
       </c>
       <c r="D467">
-        <v>152.2902907655122</v>
+        <v>152.2735248992806</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -7796,7 +7796,7 @@
         <v>199</v>
       </c>
       <c r="D468">
-        <v>133.7098628403281</v>
+        <v>133.7016551076072</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -7810,7 +7810,7 @@
         <v>200</v>
       </c>
       <c r="D469">
-        <v>159.0605244039312</v>
+        <v>159.0472299368174</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -7824,7 +7824,7 @@
         <v>201</v>
       </c>
       <c r="D470">
-        <v>135.2572968241247</v>
+        <v>135.7206809885953</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -7838,7 +7838,7 @@
         <v>202</v>
       </c>
       <c r="D471">
-        <v>137.6947451507734</v>
+        <v>137.6238676341823</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -7866,7 +7866,7 @@
         <v>204</v>
       </c>
       <c r="D473">
-        <v>158.7373218309526</v>
+        <v>158.6712404900425</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -7950,7 +7950,7 @@
         <v>210</v>
       </c>
       <c r="D479">
-        <v>90.02785599860196</v>
+        <v>90.19593653637087</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -7978,7 +7978,7 @@
         <v>212</v>
       </c>
       <c r="D481">
-        <v>102.2244399702871</v>
+        <v>101.9605392064916</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8258,7 +8258,7 @@
         <v>232</v>
       </c>
       <c r="D501">
-        <v>173.4870378365385</v>
+        <v>172.2654871556783</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -8272,7 +8272,7 @@
         <v>233</v>
       </c>
       <c r="D502">
-        <v>156.3201749290465</v>
+        <v>156.362490700654</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -8328,7 +8328,7 @@
         <v>237</v>
       </c>
       <c r="D506">
-        <v>101.8024519740539</v>
+        <v>101.7973026324834</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -8356,7 +8356,7 @@
         <v>239</v>
       </c>
       <c r="D508">
-        <v>171.3532587894969</v>
+        <v>170.0752198347288</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -8552,7 +8552,7 @@
         <v>253</v>
       </c>
       <c r="D522">
-        <v>115.8702134974259</v>
+        <v>116.0778387951137</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -8678,7 +8678,7 @@
         <v>262</v>
       </c>
       <c r="D531">
-        <v>146.680189396076</v>
+        <v>146.670465791359</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -8692,7 +8692,7 @@
         <v>263</v>
       </c>
       <c r="D532">
-        <v>126.896817307888</v>
+        <v>126.8990796840009</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -8762,7 +8762,7 @@
         <v>268</v>
       </c>
       <c r="D537">
-        <v>128.7736421242836</v>
+        <v>129.1622089016047</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -8776,7 +8776,7 @@
         <v>269</v>
       </c>
       <c r="D538">
-        <v>200.7808404473194</v>
+        <v>200.5373525579218</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -8916,7 +8916,7 @@
         <v>279</v>
       </c>
       <c r="D548">
-        <v>177.436379711979</v>
+        <v>177.4319633597519</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -10232,7 +10232,7 @@
         <v>94</v>
       </c>
       <c r="D642">
-        <v>127.764309439333</v>
+        <v>127.6538104349979</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -10456,7 +10456,7 @@
         <v>110</v>
       </c>
       <c r="D658">
-        <v>113.9890027976068</v>
+        <v>113.988797906874</v>
       </c>
     </row>
     <row r="659" spans="1:4">
@@ -11562,7 +11562,7 @@
         <v>189</v>
       </c>
       <c r="D737">
-        <v>109.0514141898452</v>
+        <v>110.522998324981</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -11884,7 +11884,7 @@
         <v>212</v>
       </c>
       <c r="D760">
-        <v>105.2365433745453</v>
+        <v>105.2252712036928</v>
       </c>
     </row>
     <row r="761" spans="1:4">
@@ -12458,7 +12458,7 @@
         <v>253</v>
       </c>
       <c r="D801">
-        <v>102.5041594642034</v>
+        <v>103.593435146818</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -12486,7 +12486,7 @@
         <v>255</v>
       </c>
       <c r="D803">
-        <v>159.9652121884859</v>
+        <v>159.9550049179788</v>
       </c>
     </row>
     <row r="804" spans="1:4">
@@ -12500,7 +12500,7 @@
         <v>256</v>
       </c>
       <c r="D804">
-        <v>151.7124331453929</v>
+        <v>153.302679213726</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -13032,7 +13032,7 @@
         <v>15</v>
       </c>
       <c r="D842">
-        <v>147.7655112081998</v>
+        <v>147.7629412610295</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -13102,7 +13102,7 @@
         <v>20</v>
       </c>
       <c r="D847">
-        <v>248.6560307774667</v>
+        <v>248.8435206257179</v>
       </c>
     </row>
     <row r="848" spans="1:4">
@@ -13116,7 +13116,7 @@
         <v>21</v>
       </c>
       <c r="D848">
-        <v>209.3458565005004</v>
+        <v>209.3387966336151</v>
       </c>
     </row>
     <row r="849" spans="1:4">
@@ -13130,7 +13130,7 @@
         <v>22</v>
       </c>
       <c r="D849">
-        <v>136.8005711312259</v>
+        <v>136.7529959818477</v>
       </c>
     </row>
     <row r="850" spans="1:4">
@@ -13158,7 +13158,7 @@
         <v>24</v>
       </c>
       <c r="D851">
-        <v>200.0167226988918</v>
+        <v>199.2305559322428</v>
       </c>
     </row>
     <row r="852" spans="1:4">
@@ -13172,7 +13172,7 @@
         <v>25</v>
       </c>
       <c r="D852">
-        <v>231.039850846661</v>
+        <v>228.818112252601</v>
       </c>
     </row>
     <row r="853" spans="1:4">
@@ -13186,7 +13186,7 @@
         <v>26</v>
       </c>
       <c r="D853">
-        <v>378.6263550444357</v>
+        <v>378.7047547179602</v>
       </c>
     </row>
     <row r="854" spans="1:4">
@@ -13214,7 +13214,7 @@
         <v>28</v>
       </c>
       <c r="D855">
-        <v>187.2207534524471</v>
+        <v>187.0972152870159</v>
       </c>
     </row>
     <row r="856" spans="1:4">
@@ -13270,7 +13270,7 @@
         <v>32</v>
       </c>
       <c r="D859">
-        <v>170.6175841168087</v>
+        <v>170.6009396068315</v>
       </c>
     </row>
     <row r="860" spans="1:4">
@@ -13354,7 +13354,7 @@
         <v>38</v>
       </c>
       <c r="D865">
-        <v>502.3343131840195</v>
+        <v>504.6292023434611</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -13732,7 +13732,7 @@
         <v>65</v>
       </c>
       <c r="D892">
-        <v>165.3715812658847</v>
+        <v>165.3723623479604</v>
       </c>
     </row>
     <row r="893" spans="1:4">
@@ -13942,7 +13942,7 @@
         <v>80</v>
       </c>
       <c r="D907">
-        <v>126.7799260656054</v>
+        <v>126.7121847934078</v>
       </c>
     </row>
     <row r="908" spans="1:4">
@@ -13956,7 +13956,7 @@
         <v>81</v>
       </c>
       <c r="D908">
-        <v>143.6017930321252</v>
+        <v>143.5870475603859</v>
       </c>
     </row>
     <row r="909" spans="1:4">
@@ -13970,7 +13970,7 @@
         <v>82</v>
       </c>
       <c r="D909">
-        <v>223.6020587759577</v>
+        <v>223.5511328381627</v>
       </c>
     </row>
     <row r="910" spans="1:4">
@@ -13984,7 +13984,7 @@
         <v>83</v>
       </c>
       <c r="D910">
-        <v>151.4545724733562</v>
+        <v>151.4645736381904</v>
       </c>
     </row>
     <row r="911" spans="1:4">
@@ -14012,7 +14012,7 @@
         <v>85</v>
       </c>
       <c r="D912">
-        <v>138.095212380371</v>
+        <v>138.0639885640822</v>
       </c>
     </row>
     <row r="913" spans="1:4">
@@ -15048,7 +15048,7 @@
         <v>159</v>
       </c>
       <c r="D986">
-        <v>152.8529044694495</v>
+        <v>152.8403855546273</v>
       </c>
     </row>
     <row r="987" spans="1:4">
@@ -15062,7 +15062,7 @@
         <v>160</v>
       </c>
       <c r="D987">
-        <v>138.1740326129823</v>
+        <v>130.0908159489549</v>
       </c>
     </row>
     <row r="988" spans="1:4">
@@ -15468,7 +15468,7 @@
         <v>189</v>
       </c>
       <c r="D1016">
-        <v>108.7040745717465</v>
+        <v>110.6433506683097</v>
       </c>
     </row>
     <row r="1017" spans="1:4">
@@ -15552,7 +15552,7 @@
         <v>195</v>
       </c>
       <c r="D1022">
-        <v>111.6316639330415</v>
+        <v>111.6288188995323</v>
       </c>
     </row>
     <row r="1023" spans="1:4">
@@ -15566,7 +15566,7 @@
         <v>196</v>
       </c>
       <c r="D1023">
-        <v>110.1418705370469</v>
+        <v>110.139765231753</v>
       </c>
     </row>
     <row r="1024" spans="1:4">
@@ -15580,7 +15580,7 @@
         <v>197</v>
       </c>
       <c r="D1024">
-        <v>104.8675634869901</v>
+        <v>104.8661436362158</v>
       </c>
     </row>
     <row r="1025" spans="1:4">
@@ -15790,7 +15790,7 @@
         <v>212</v>
       </c>
       <c r="D1039">
-        <v>100.0213051437641</v>
+        <v>100.0074364740932</v>
       </c>
     </row>
     <row r="1040" spans="1:4">
@@ -16616,7 +16616,7 @@
         <v>271</v>
       </c>
       <c r="D1098">
-        <v>130.5309828995392</v>
+        <v>130.5390711620619</v>
       </c>
     </row>
     <row r="1099" spans="1:4">
@@ -17736,7 +17736,7 @@
         <v>72</v>
       </c>
       <c r="D1178">
-        <v>70014.48381564968</v>
+        <v>70062.19875464166</v>
       </c>
     </row>
     <row r="1179" spans="1:4">
@@ -19122,7 +19122,7 @@
         <v>171</v>
       </c>
       <c r="D1277">
-        <v>131.6384877489971</v>
+        <v>131.5493570940622</v>
       </c>
     </row>
     <row r="1278" spans="1:4">
@@ -19374,7 +19374,7 @@
         <v>189</v>
       </c>
       <c r="D1295">
-        <v>111.2442450917136</v>
+        <v>112.7805716461989</v>
       </c>
     </row>
     <row r="1296" spans="1:4">
@@ -21166,7 +21166,7 @@
         <v>38</v>
       </c>
       <c r="D1423">
-        <v>373.9950696941198</v>
+        <v>374.8369649085772</v>
       </c>
     </row>
     <row r="1424" spans="1:4">
@@ -21432,7 +21432,7 @@
         <v>57</v>
       </c>
       <c r="D1442">
-        <v>1850.206619454522</v>
+        <v>1759.855625862019</v>
       </c>
     </row>
     <row r="1443" spans="1:4">
@@ -21446,7 +21446,7 @@
         <v>58</v>
       </c>
       <c r="D1443">
-        <v>901.7109677389349</v>
+        <v>910.6230993228738</v>
       </c>
     </row>
     <row r="1444" spans="1:4">
@@ -21460,7 +21460,7 @@
         <v>59</v>
       </c>
       <c r="D1444">
-        <v>594.3123179218336</v>
+        <v>595.6291280989675</v>
       </c>
     </row>
     <row r="1445" spans="1:4">
@@ -22412,7 +22412,7 @@
         <v>127</v>
       </c>
       <c r="D1512">
-        <v>101.8933702573153</v>
+        <v>100.8242599699572</v>
       </c>
     </row>
     <row r="1513" spans="1:4">
@@ -23280,7 +23280,7 @@
         <v>189</v>
       </c>
       <c r="D1574">
-        <v>112.8165916180817</v>
+        <v>113.7279461094889</v>
       </c>
     </row>
     <row r="1575" spans="1:4">
@@ -23350,7 +23350,7 @@
         <v>194</v>
       </c>
       <c r="D1579">
-        <v>157.5055644373475</v>
+        <v>157.5054815228778</v>
       </c>
     </row>
     <row r="1580" spans="1:4">
@@ -23406,7 +23406,7 @@
         <v>198</v>
       </c>
       <c r="D1583">
-        <v>118.1395097199489</v>
+        <v>116.8738915110075</v>
       </c>
     </row>
     <row r="1584" spans="1:4">
@@ -23672,7 +23672,7 @@
         <v>217</v>
       </c>
       <c r="D1602">
-        <v>105.0132963204474</v>
+        <v>104.1082930604399</v>
       </c>
     </row>
     <row r="1603" spans="1:4">
@@ -24750,7 +24750,7 @@
         <v>15</v>
       </c>
       <c r="D1679">
-        <v>128.6571142840513</v>
+        <v>128.6566485448059</v>
       </c>
     </row>
     <row r="1680" spans="1:4">
@@ -24764,7 +24764,7 @@
         <v>16</v>
       </c>
       <c r="D1680">
-        <v>163.0436370884259</v>
+        <v>163.0432459931097</v>
       </c>
     </row>
     <row r="1681" spans="1:4">
@@ -24778,7 +24778,7 @@
         <v>17</v>
       </c>
       <c r="D1681">
-        <v>175.0730412211858</v>
+        <v>175.0708199379002</v>
       </c>
     </row>
     <row r="1682" spans="1:4">
@@ -24792,7 +24792,7 @@
         <v>18</v>
       </c>
       <c r="D1682">
-        <v>144.1430083575926</v>
+        <v>144.1392858271683</v>
       </c>
     </row>
     <row r="1683" spans="1:4">
@@ -24876,7 +24876,7 @@
         <v>24</v>
       </c>
       <c r="D1688">
-        <v>161.2880672775059</v>
+        <v>161.3572063541077</v>
       </c>
     </row>
     <row r="1689" spans="1:4">
@@ -24932,7 +24932,7 @@
         <v>28</v>
       </c>
       <c r="D1692">
-        <v>144.5914076621792</v>
+        <v>144.5865607163164</v>
       </c>
     </row>
     <row r="1693" spans="1:4">
@@ -24946,7 +24946,7 @@
         <v>29</v>
       </c>
       <c r="D1693">
-        <v>184.1669272387902</v>
+        <v>184.1709805100468</v>
       </c>
     </row>
     <row r="1694" spans="1:4">
@@ -24988,7 +24988,7 @@
         <v>32</v>
       </c>
       <c r="D1696">
-        <v>185.9015111226422</v>
+        <v>185.9218431876289</v>
       </c>
     </row>
     <row r="1697" spans="1:4">
@@ -25072,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="D1702">
-        <v>423.9916527675803</v>
+        <v>425.5838730830798</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -25226,7 +25226,7 @@
         <v>49</v>
       </c>
       <c r="D1713">
-        <v>396.5214944727733</v>
+        <v>396.4984073249814</v>
       </c>
     </row>
     <row r="1714" spans="1:4">
@@ -25268,7 +25268,7 @@
         <v>52</v>
       </c>
       <c r="D1716">
-        <v>425.9366978091839</v>
+        <v>426.10045581509</v>
       </c>
     </row>
     <row r="1717" spans="1:4">
@@ -25338,7 +25338,7 @@
         <v>57</v>
       </c>
       <c r="D1721">
-        <v>1410.930443729523</v>
+        <v>1315.455860188989</v>
       </c>
     </row>
     <row r="1722" spans="1:4">
@@ -25352,7 +25352,7 @@
         <v>58</v>
       </c>
       <c r="D1722">
-        <v>1988.155513230819</v>
+        <v>1999.83083051683</v>
       </c>
     </row>
     <row r="1723" spans="1:4">
@@ -25366,7 +25366,7 @@
         <v>59</v>
       </c>
       <c r="D1723">
-        <v>400.7133401284178</v>
+        <v>399.6127510199524</v>
       </c>
     </row>
     <row r="1724" spans="1:4">
@@ -25380,7 +25380,7 @@
         <v>60</v>
       </c>
       <c r="D1724">
-        <v>162.6506804851755</v>
+        <v>162.6545437690278</v>
       </c>
     </row>
     <row r="1725" spans="1:4">
@@ -25548,7 +25548,7 @@
         <v>72</v>
       </c>
       <c r="D1736">
-        <v>152.9233574954675</v>
+        <v>154.6456628172437</v>
       </c>
     </row>
     <row r="1737" spans="1:4">
@@ -25576,7 +25576,7 @@
         <v>74</v>
       </c>
       <c r="D1738">
-        <v>148.4588369632849</v>
+        <v>148.4263088402214</v>
       </c>
     </row>
     <row r="1739" spans="1:4">
@@ -25646,7 +25646,7 @@
         <v>79</v>
       </c>
       <c r="D1743">
-        <v>136.0455887216062</v>
+        <v>136.0225892112582</v>
       </c>
     </row>
     <row r="1744" spans="1:4">
@@ -25688,7 +25688,7 @@
         <v>82</v>
       </c>
       <c r="D1746">
-        <v>199.9048797592837</v>
+        <v>200.2965566946282</v>
       </c>
     </row>
     <row r="1747" spans="1:4">
@@ -25730,7 +25730,7 @@
         <v>85</v>
       </c>
       <c r="D1749">
-        <v>134.7105606904771</v>
+        <v>134.7618093322078</v>
       </c>
     </row>
     <row r="1750" spans="1:4">
@@ -25842,7 +25842,7 @@
         <v>93</v>
       </c>
       <c r="D1757">
-        <v>126.4433772595243</v>
+        <v>126.4423833244572</v>
       </c>
     </row>
     <row r="1758" spans="1:4">
@@ -25870,7 +25870,7 @@
         <v>95</v>
       </c>
       <c r="D1759">
-        <v>130.3985488748975</v>
+        <v>130.4019812403078</v>
       </c>
     </row>
     <row r="1760" spans="1:4">
@@ -25898,7 +25898,7 @@
         <v>97</v>
       </c>
       <c r="D1761">
-        <v>124.6243713419891</v>
+        <v>124.6259363155368</v>
       </c>
     </row>
     <row r="1762" spans="1:4">
@@ -25912,7 +25912,7 @@
         <v>98</v>
       </c>
       <c r="D1762">
-        <v>141.8178196530862</v>
+        <v>141.818468126989</v>
       </c>
     </row>
     <row r="1763" spans="1:4">
@@ -25926,7 +25926,7 @@
         <v>99</v>
       </c>
       <c r="D1763">
-        <v>142.4486319269917</v>
+        <v>142.4433420156676</v>
       </c>
     </row>
     <row r="1764" spans="1:4">
@@ -25996,7 +25996,7 @@
         <v>104</v>
       </c>
       <c r="D1768">
-        <v>128.1320888925464</v>
+        <v>128.137749619468</v>
       </c>
     </row>
     <row r="1769" spans="1:4">
@@ -26066,7 +26066,7 @@
         <v>109</v>
       </c>
       <c r="D1773">
-        <v>119.0541330882367</v>
+        <v>119.0496547260012</v>
       </c>
     </row>
     <row r="1774" spans="1:4">
@@ -26220,7 +26220,7 @@
         <v>120</v>
       </c>
       <c r="D1784">
-        <v>137.8459794226165</v>
+        <v>137.8459774013191</v>
       </c>
     </row>
     <row r="1785" spans="1:4">
@@ -26304,7 +26304,7 @@
         <v>126</v>
       </c>
       <c r="D1790">
-        <v>164.6133554412416</v>
+        <v>164.5719017745251</v>
       </c>
     </row>
     <row r="1791" spans="1:4">
@@ -26318,7 +26318,7 @@
         <v>127</v>
       </c>
       <c r="D1791">
-        <v>106.0907017079539</v>
+        <v>105.5606590955689</v>
       </c>
     </row>
     <row r="1792" spans="1:4">
@@ -26332,7 +26332,7 @@
         <v>128</v>
       </c>
       <c r="D1792">
-        <v>232.372111906299</v>
+        <v>232.4178733976825</v>
       </c>
     </row>
     <row r="1793" spans="1:4">
@@ -26584,7 +26584,7 @@
         <v>146</v>
       </c>
       <c r="D1810">
-        <v>112.1378407040031</v>
+        <v>111.6572322574829</v>
       </c>
     </row>
     <row r="1811" spans="1:4">
@@ -26766,7 +26766,7 @@
         <v>159</v>
       </c>
       <c r="D1823">
-        <v>142.9439463764447</v>
+        <v>142.9344503599032</v>
       </c>
     </row>
     <row r="1824" spans="1:4">
@@ -26822,7 +26822,7 @@
         <v>163</v>
       </c>
       <c r="D1827">
-        <v>109.2828054359617</v>
+        <v>108.1077925821672</v>
       </c>
     </row>
     <row r="1828" spans="1:4">
@@ -26864,7 +26864,7 @@
         <v>166</v>
       </c>
       <c r="D1830">
-        <v>113.697985445558</v>
+        <v>113.6481065777334</v>
       </c>
     </row>
     <row r="1831" spans="1:4">
@@ -26892,7 +26892,7 @@
         <v>168</v>
       </c>
       <c r="D1832">
-        <v>122.2833442536089</v>
+        <v>122.288890464686</v>
       </c>
     </row>
     <row r="1833" spans="1:4">
@@ -26934,7 +26934,7 @@
         <v>171</v>
       </c>
       <c r="D1835">
-        <v>124.3208978580558</v>
+        <v>124.317744847972</v>
       </c>
     </row>
     <row r="1836" spans="1:4">
@@ -26948,7 +26948,7 @@
         <v>172</v>
       </c>
       <c r="D1836">
-        <v>129.0777173009955</v>
+        <v>129.0775155693577</v>
       </c>
     </row>
     <row r="1837" spans="1:4">
@@ -26962,7 +26962,7 @@
         <v>173</v>
       </c>
       <c r="D1837">
-        <v>120.9749592522874</v>
+        <v>121.2000776346721</v>
       </c>
     </row>
     <row r="1838" spans="1:4">
@@ -27018,7 +27018,7 @@
         <v>177</v>
       </c>
       <c r="D1841">
-        <v>121.5792034756817</v>
+        <v>121.5792207627692</v>
       </c>
     </row>
     <row r="1842" spans="1:4">
@@ -27032,7 +27032,7 @@
         <v>178</v>
       </c>
       <c r="D1842">
-        <v>139.8445479720451</v>
+        <v>139.8440118233824</v>
       </c>
     </row>
     <row r="1843" spans="1:4">
@@ -27186,7 +27186,7 @@
         <v>189</v>
       </c>
       <c r="D1853">
-        <v>113.1894041383533</v>
+        <v>114.4688733314474</v>
       </c>
     </row>
     <row r="1854" spans="1:4">
@@ -27326,7 +27326,7 @@
         <v>199</v>
       </c>
       <c r="D1863">
-        <v>159.2960745104042</v>
+        <v>159.3023361009843</v>
       </c>
     </row>
     <row r="1864" spans="1:4">
@@ -28096,7 +28096,7 @@
         <v>254</v>
       </c>
       <c r="D1918">
-        <v>151.5304005667313</v>
+        <v>151.5110930911186</v>
       </c>
     </row>
     <row r="1919" spans="1:4">
@@ -28110,7 +28110,7 @@
         <v>255</v>
       </c>
       <c r="D1919">
-        <v>149.6367613852246</v>
+        <v>149.5960124175775</v>
       </c>
     </row>
     <row r="1920" spans="1:4">
@@ -31092,7 +31092,7 @@
         <v>189</v>
       </c>
       <c r="D2132">
-        <v>113.7187713069587</v>
+        <v>114.6047173450296</v>
       </c>
     </row>
     <row r="2133" spans="1:4">
@@ -32884,7 +32884,7 @@
         <v>38</v>
       </c>
       <c r="D2260">
-        <v>926.7761553233621</v>
+        <v>927.2479840562397</v>
       </c>
     </row>
     <row r="2261" spans="1:4">
@@ -34746,7 +34746,7 @@
         <v>171</v>
       </c>
       <c r="D2393">
-        <v>125.5572510064235</v>
+        <v>125.5560278988888</v>
       </c>
     </row>
     <row r="2394" spans="1:4">
@@ -34998,7 +34998,7 @@
         <v>189</v>
       </c>
       <c r="D2411">
-        <v>109.0720273414467</v>
+        <v>110.4035858208578</v>
       </c>
     </row>
     <row r="2412" spans="1:4">
@@ -35040,7 +35040,7 @@
         <v>192</v>
       </c>
       <c r="D2414">
-        <v>133.9360059667147</v>
+        <v>133.9575599260492</v>
       </c>
     </row>
     <row r="2415" spans="1:4">
@@ -36188,7 +36188,7 @@
         <v>274</v>
       </c>
       <c r="D2496">
-        <v>121.4518534240022</v>
+        <v>121.4172396126442</v>
       </c>
     </row>
     <row r="2497" spans="1:4">

--- a/IPC2024_base2010/indprod_6_2024.xlsx
+++ b/IPC2024_base2010/indprod_6_2024.xlsx
@@ -1510,7 +1510,7 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>358.0163877104828</v>
+        <v>358.5827883504623</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1524,7 +1524,7 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>206.560045919885</v>
+        <v>203.414147674204</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>530.7174265544274</v>
+        <v>530.8240939266335</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1776,7 +1776,7 @@
         <v>48</v>
       </c>
       <c r="D38">
-        <v>938.1471221254657</v>
+        <v>938.3105323859193</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1818,7 +1818,7 @@
         <v>51</v>
       </c>
       <c r="D41">
-        <v>1068.259984514087</v>
+        <v>1068.863350998167</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1944,7 +1944,7 @@
         <v>60</v>
       </c>
       <c r="D50">
-        <v>166.5084108097651</v>
+        <v>166.5122088949956</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2882,7 +2882,7 @@
         <v>127</v>
       </c>
       <c r="D117">
-        <v>108.1230590340248</v>
+        <v>108.1072019227776</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3414,7 +3414,7 @@
         <v>165</v>
       </c>
       <c r="D155">
-        <v>108.9885534315301</v>
+        <v>108.9902379008694</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5682,7 +5682,7 @@
         <v>48</v>
       </c>
       <c r="D317">
-        <v>441.6837840317426</v>
+        <v>442.3415368719415</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -5850,7 +5850,7 @@
         <v>60</v>
       </c>
       <c r="D329">
-        <v>151.7371858107716</v>
+        <v>151.764250890892</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -13228,7 +13228,7 @@
         <v>29</v>
       </c>
       <c r="D856">
-        <v>179.3780744654059</v>
+        <v>184.4967459165353</v>
       </c>
     </row>
     <row r="857" spans="1:4">
@@ -13354,7 +13354,7 @@
         <v>38</v>
       </c>
       <c r="D865">
-        <v>504.6292023434611</v>
+        <v>507.0287038809785</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -13536,7 +13536,7 @@
         <v>51</v>
       </c>
       <c r="D878">
-        <v>286.313995675729</v>
+        <v>294.2669616575989</v>
       </c>
     </row>
     <row r="879" spans="1:4">
@@ -15132,7 +15132,7 @@
         <v>165</v>
       </c>
       <c r="D992">
-        <v>122.6050611062829</v>
+        <v>122.629396</v>
       </c>
     </row>
     <row r="993" spans="1:4">
@@ -18506,7 +18506,7 @@
         <v>127</v>
       </c>
       <c r="D1233">
-        <v>94.76634819122083</v>
+        <v>94.47746769338214</v>
       </c>
     </row>
     <row r="1234" spans="1:4">
@@ -21054,7 +21054,7 @@
         <v>30</v>
       </c>
       <c r="D1415">
-        <v>219.4906151693177</v>
+        <v>196.6830267307943</v>
       </c>
     </row>
     <row r="1416" spans="1:4">

--- a/IPC2024_base2010/indprod_6_2024.xlsx
+++ b/IPC2024_base2010/indprod_6_2024.xlsx
@@ -1300,7 +1300,7 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>336.7123951562286</v>
+        <v>339.2693154328807</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1342,7 +1342,7 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>198.7213064433516</v>
+        <v>199.3580264287858</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1384,7 +1384,7 @@
         <v>20</v>
       </c>
       <c r="D10">
-        <v>266.0838261755756</v>
+        <v>266.0132970644838</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1412,7 +1412,7 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <v>135.8245182070484</v>
+        <v>135.9480846095674</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>154.6563968623614</v>
+        <v>154.6048849339799</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1454,7 +1454,7 @@
         <v>25</v>
       </c>
       <c r="D15">
-        <v>235.2953868411201</v>
+        <v>235.4669252750484</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1482,7 +1482,7 @@
         <v>27</v>
       </c>
       <c r="D17">
-        <v>149.4724949138115</v>
+        <v>149.4728803412361</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1524,7 +1524,7 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>203.414147674204</v>
+        <v>206.6375125488271</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1566,7 +1566,7 @@
         <v>33</v>
       </c>
       <c r="D23">
-        <v>1153.978972519883</v>
+        <v>1105.583632169971</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1580,7 +1580,7 @@
         <v>34</v>
       </c>
       <c r="D24">
-        <v>455.9156022907584</v>
+        <v>451.7110686129972</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1608,7 +1608,7 @@
         <v>36</v>
       </c>
       <c r="D26">
-        <v>2289.166635595255</v>
+        <v>2286.620945893644</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1636,7 +1636,7 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>530.8240939266335</v>
+        <v>530.4056723793432</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1678,7 +1678,7 @@
         <v>41</v>
       </c>
       <c r="D31">
-        <v>3940.593664039258</v>
+        <v>3964.738491532741</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1692,7 +1692,7 @@
         <v>42</v>
       </c>
       <c r="D32">
-        <v>1085.512137092676</v>
+        <v>1084.698963195957</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1720,7 +1720,7 @@
         <v>44</v>
       </c>
       <c r="D34">
-        <v>684.5214620269644</v>
+        <v>681.7053918289265</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1734,7 +1734,7 @@
         <v>45</v>
       </c>
       <c r="D35">
-        <v>1028.538786533485</v>
+        <v>1026.662085108766</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1748,7 +1748,7 @@
         <v>46</v>
       </c>
       <c r="D36">
-        <v>748.4918799550309</v>
+        <v>746.4983855549714</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1776,7 +1776,7 @@
         <v>48</v>
       </c>
       <c r="D38">
-        <v>938.3105323859193</v>
+        <v>937.8560868548333</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1790,7 +1790,7 @@
         <v>49</v>
       </c>
       <c r="D39">
-        <v>771.0765696266882</v>
+        <v>768.69904806005</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1818,7 +1818,7 @@
         <v>51</v>
       </c>
       <c r="D41">
-        <v>1068.863350998167</v>
+        <v>1065.877334513309</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1832,7 +1832,7 @@
         <v>52</v>
       </c>
       <c r="D42">
-        <v>608.9690979657508</v>
+        <v>604.7590378231364</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1846,7 +1846,7 @@
         <v>53</v>
       </c>
       <c r="D43">
-        <v>1020.076101648812</v>
+        <v>1018.324361136267</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1888,7 +1888,7 @@
         <v>56</v>
       </c>
       <c r="D46">
-        <v>872.163273898962</v>
+        <v>866.9683452863565</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1930,7 +1930,7 @@
         <v>59</v>
       </c>
       <c r="D49">
-        <v>1545.809750921107</v>
+        <v>1542.751650940578</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2042,7 +2042,7 @@
         <v>67</v>
       </c>
       <c r="D57">
-        <v>152.7093235860629</v>
+        <v>152.5854907089947</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2840,7 +2840,7 @@
         <v>124</v>
       </c>
       <c r="D114">
-        <v>152.7468900821173</v>
+        <v>151.254592514659</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3344,7 +3344,7 @@
         <v>160</v>
       </c>
       <c r="D150">
-        <v>135.2270122213349</v>
+        <v>135.8707954328724</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3358,7 +3358,7 @@
         <v>161</v>
       </c>
       <c r="D151">
-        <v>136.6772569497011</v>
+        <v>136.7147047113407</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3386,7 +3386,7 @@
         <v>163</v>
       </c>
       <c r="D153">
-        <v>112.6358852278609</v>
+        <v>112.8939835415117</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3484,7 +3484,7 @@
         <v>170</v>
       </c>
       <c r="D160">
-        <v>137.9908409037156</v>
+        <v>137.7024134239995</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3582,7 +3582,7 @@
         <v>177</v>
       </c>
       <c r="D167">
-        <v>126.9655263936956</v>
+        <v>127.075842160457</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3638,7 +3638,7 @@
         <v>181</v>
       </c>
       <c r="D171">
-        <v>156.036644072356</v>
+        <v>156.5041539830731</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3876,7 +3876,7 @@
         <v>198</v>
       </c>
       <c r="D188">
-        <v>145.6654540126504</v>
+        <v>145.7538889243344</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3890,7 +3890,7 @@
         <v>199</v>
       </c>
       <c r="D189">
-        <v>137.2693186506442</v>
+        <v>137.2568081065082</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4016,7 +4016,7 @@
         <v>208</v>
       </c>
       <c r="D198">
-        <v>942.9633494980824</v>
+        <v>901.8365177069194</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4646,7 +4646,7 @@
         <v>253</v>
       </c>
       <c r="D243">
-        <v>113.854402034893</v>
+        <v>113.7997167508703</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4688,7 +4688,7 @@
         <v>256</v>
       </c>
       <c r="D246">
-        <v>151.8366453444718</v>
+        <v>151.7211800346609</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4870,7 +4870,7 @@
         <v>269</v>
       </c>
       <c r="D259">
-        <v>167.6304182131136</v>
+        <v>167.7493556098267</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4884,7 +4884,7 @@
         <v>270</v>
       </c>
       <c r="D260">
-        <v>130.6255150150531</v>
+        <v>130.5592692445799</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5094,7 +5094,7 @@
         <v>285</v>
       </c>
       <c r="D275">
-        <v>104.3188191541502</v>
+        <v>106.4757872193676</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5290,7 +5290,7 @@
         <v>20</v>
       </c>
       <c r="D289">
-        <v>239.3373827483209</v>
+        <v>238.9533196608888</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5318,7 +5318,7 @@
         <v>22</v>
       </c>
       <c r="D291">
-        <v>130.7794636273193</v>
+        <v>131.3820962225364</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5332,7 +5332,7 @@
         <v>23</v>
       </c>
       <c r="D292">
-        <v>142.940997141761</v>
+        <v>142.773100074807</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5430,7 +5430,7 @@
         <v>30</v>
       </c>
       <c r="D299">
-        <v>171.3969096643682</v>
+        <v>171.5201113489637</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5472,7 +5472,7 @@
         <v>33</v>
       </c>
       <c r="D302">
-        <v>309.848001776825</v>
+        <v>303.8683530552886</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5542,7 +5542,7 @@
         <v>38</v>
       </c>
       <c r="D307">
-        <v>348.9743312392142</v>
+        <v>348.9648090195624</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5598,7 +5598,7 @@
         <v>42</v>
       </c>
       <c r="D311">
-        <v>759.8954420660899</v>
+        <v>757.5333980352732</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -5626,7 +5626,7 @@
         <v>44</v>
       </c>
       <c r="D313">
-        <v>240.9546405657879</v>
+        <v>245.468991983229</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -5640,7 +5640,7 @@
         <v>45</v>
       </c>
       <c r="D314">
-        <v>423.248600122219</v>
+        <v>410.7657270168869</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -5654,7 +5654,7 @@
         <v>46</v>
       </c>
       <c r="D315">
-        <v>308.3087407327</v>
+        <v>303.8855705147441</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -5682,7 +5682,7 @@
         <v>48</v>
       </c>
       <c r="D317">
-        <v>442.3415368719415</v>
+        <v>437.3752018149831</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -5696,7 +5696,7 @@
         <v>49</v>
       </c>
       <c r="D318">
-        <v>440.6238583538686</v>
+        <v>437.6320014583999</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -5724,7 +5724,7 @@
         <v>51</v>
       </c>
       <c r="D320">
-        <v>202.9747295974368</v>
+        <v>199.6806123940224</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -5752,7 +5752,7 @@
         <v>53</v>
       </c>
       <c r="D322">
-        <v>611.2361965806409</v>
+        <v>603.1647490607822</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -5794,7 +5794,7 @@
         <v>56</v>
       </c>
       <c r="D325">
-        <v>371.2560682557745</v>
+        <v>358.9291889241255</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -5836,7 +5836,7 @@
         <v>59</v>
       </c>
       <c r="D328">
-        <v>510.5030311042763</v>
+        <v>505.6526126098996</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6746,7 +6746,7 @@
         <v>124</v>
       </c>
       <c r="D393">
-        <v>171.440158891556</v>
+        <v>169.1946501096809</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7922,7 +7922,7 @@
         <v>208</v>
       </c>
       <c r="D477">
-        <v>948.4773666760645</v>
+        <v>907.110044035397</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8776,7 +8776,7 @@
         <v>269</v>
       </c>
       <c r="D538">
-        <v>200.5373525579218</v>
+        <v>200.8015851912969</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -8790,7 +8790,7 @@
         <v>270</v>
       </c>
       <c r="D539">
-        <v>145.5662095503715</v>
+        <v>145.4113551276614</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -9000,7 +9000,7 @@
         <v>285</v>
       </c>
       <c r="D554">
-        <v>104.3188191541502</v>
+        <v>106.4757872193676</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -9112,7 +9112,7 @@
         <v>14</v>
       </c>
       <c r="D562">
-        <v>689.7207970685698</v>
+        <v>709.6756953690973</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -9378,7 +9378,7 @@
         <v>33</v>
       </c>
       <c r="D581">
-        <v>12731.83979040514</v>
+        <v>11100.3491844803</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -9392,7 +9392,7 @@
         <v>34</v>
       </c>
       <c r="D582">
-        <v>1398.960867484109</v>
+        <v>1332.147231964956</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -9490,7 +9490,7 @@
         <v>41</v>
       </c>
       <c r="D589">
-        <v>6945.776502451929</v>
+        <v>7283.104539528853</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -9588,7 +9588,7 @@
         <v>48</v>
       </c>
       <c r="D596">
-        <v>1591.255695803023</v>
+        <v>1516.141981339336</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -11828,7 +11828,7 @@
         <v>208</v>
       </c>
       <c r="D756">
-        <v>930.8287820561061</v>
+        <v>890.2311928005203</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -12458,7 +12458,7 @@
         <v>253</v>
       </c>
       <c r="D801">
-        <v>103.593435146818</v>
+        <v>102.5041594642034</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -12500,7 +12500,7 @@
         <v>256</v>
       </c>
       <c r="D804">
-        <v>153.302679213726</v>
+        <v>151.7124331453929</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -12906,7 +12906,7 @@
         <v>285</v>
       </c>
       <c r="D833">
-        <v>104.3188191541502</v>
+        <v>106.4757872193676</v>
       </c>
     </row>
     <row r="834" spans="1:4">
@@ -13172,7 +13172,7 @@
         <v>25</v>
       </c>
       <c r="D852">
-        <v>228.818112252601</v>
+        <v>230.9980149597989</v>
       </c>
     </row>
     <row r="853" spans="1:4">
@@ -13396,7 +13396,7 @@
         <v>41</v>
       </c>
       <c r="D868">
-        <v>1064.255197220278</v>
+        <v>1041.493644125927</v>
       </c>
     </row>
     <row r="869" spans="1:4">
@@ -13550,7 +13550,7 @@
         <v>52</v>
       </c>
       <c r="D879">
-        <v>212.4703816510949</v>
+        <v>206.4217623231357</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -13564,7 +13564,7 @@
         <v>53</v>
       </c>
       <c r="D880">
-        <v>329.2755909167887</v>
+        <v>317.6866307397277</v>
       </c>
     </row>
     <row r="881" spans="1:4">
@@ -13648,7 +13648,7 @@
         <v>59</v>
       </c>
       <c r="D886">
-        <v>466.0063976937121</v>
+        <v>449.384533142483</v>
       </c>
     </row>
     <row r="887" spans="1:4">
@@ -15062,7 +15062,7 @@
         <v>160</v>
       </c>
       <c r="D987">
-        <v>130.0908159489549</v>
+        <v>138.1740326129823</v>
       </c>
     </row>
     <row r="988" spans="1:4">
@@ -15202,7 +15202,7 @@
         <v>170</v>
       </c>
       <c r="D997">
-        <v>130.0353319623099</v>
+        <v>125.288065</v>
       </c>
     </row>
     <row r="998" spans="1:4">
@@ -15734,7 +15734,7 @@
         <v>208</v>
       </c>
       <c r="D1035">
-        <v>930.8287820561061</v>
+        <v>890.2311928005203</v>
       </c>
     </row>
     <row r="1036" spans="1:4">
@@ -16812,7 +16812,7 @@
         <v>285</v>
       </c>
       <c r="D1112">
-        <v>104.3188191541502</v>
+        <v>106.4757872193676</v>
       </c>
     </row>
     <row r="1113" spans="1:4">
@@ -17260,7 +17260,7 @@
         <v>38</v>
       </c>
       <c r="D1144">
-        <v>1457.362637524142</v>
+        <v>1464.606194664719</v>
       </c>
     </row>
     <row r="1145" spans="1:4">
@@ -17344,7 +17344,7 @@
         <v>44</v>
       </c>
       <c r="D1150">
-        <v>2551.402732559781</v>
+        <v>2483.037833584827</v>
       </c>
     </row>
     <row r="1151" spans="1:4">
@@ -17414,7 +17414,7 @@
         <v>49</v>
       </c>
       <c r="D1155">
-        <v>1155.031813485036</v>
+        <v>1111.058964023663</v>
       </c>
     </row>
     <row r="1156" spans="1:4">
@@ -19640,7 +19640,7 @@
         <v>208</v>
       </c>
       <c r="D1314">
-        <v>930.8287820561061</v>
+        <v>890.2311928005203</v>
       </c>
     </row>
     <row r="1315" spans="1:4">
@@ -20718,7 +20718,7 @@
         <v>285</v>
       </c>
       <c r="D1391">
-        <v>104.3188191541502</v>
+        <v>106.4757872193676</v>
       </c>
     </row>
     <row r="1392" spans="1:4">
@@ -21054,7 +21054,7 @@
         <v>30</v>
       </c>
       <c r="D1415">
-        <v>196.6830267307943</v>
+        <v>219.791358119934</v>
       </c>
     </row>
     <row r="1416" spans="1:4">
@@ -21166,7 +21166,7 @@
         <v>38</v>
       </c>
       <c r="D1423">
-        <v>374.8369649085772</v>
+        <v>375.6831760026913</v>
       </c>
     </row>
     <row r="1424" spans="1:4">
@@ -21208,7 +21208,7 @@
         <v>41</v>
       </c>
       <c r="D1426">
-        <v>926.0587746666057</v>
+        <v>932.4042208236576</v>
       </c>
     </row>
     <row r="1427" spans="1:4">
@@ -21306,7 +21306,7 @@
         <v>48</v>
       </c>
       <c r="D1433">
-        <v>698.0851582280349</v>
+        <v>706.6896047695476</v>
       </c>
     </row>
     <row r="1434" spans="1:4">
@@ -21460,7 +21460,7 @@
         <v>59</v>
       </c>
       <c r="D1444">
-        <v>595.6291280989675</v>
+        <v>585.777581043671</v>
       </c>
     </row>
     <row r="1445" spans="1:4">
@@ -23112,7 +23112,7 @@
         <v>177</v>
       </c>
       <c r="D1562">
-        <v>125.116775915177</v>
+        <v>125.9676442662859</v>
       </c>
     </row>
     <row r="1563" spans="1:4">
@@ -23406,7 +23406,7 @@
         <v>198</v>
       </c>
       <c r="D1583">
-        <v>116.8738915110075</v>
+        <v>117.7222727145291</v>
       </c>
     </row>
     <row r="1584" spans="1:4">
@@ -23420,7 +23420,7 @@
         <v>199</v>
       </c>
       <c r="D1584">
-        <v>133.6544326512516</v>
+        <v>133.4486565590735</v>
       </c>
     </row>
     <row r="1585" spans="1:4">
@@ -23546,7 +23546,7 @@
         <v>208</v>
       </c>
       <c r="D1593">
-        <v>930.8287820561061</v>
+        <v>890.2311928005203</v>
       </c>
     </row>
     <row r="1594" spans="1:4">
@@ -24624,7 +24624,7 @@
         <v>285</v>
       </c>
       <c r="D1670">
-        <v>104.3188191541502</v>
+        <v>106.4757872193676</v>
       </c>
     </row>
     <row r="1671" spans="1:4">
@@ -24736,7 +24736,7 @@
         <v>14</v>
       </c>
       <c r="D1678">
-        <v>223.0179713125571</v>
+        <v>222.8574278427729</v>
       </c>
     </row>
     <row r="1679" spans="1:4">
@@ -24848,7 +24848,7 @@
         <v>22</v>
       </c>
       <c r="D1686">
-        <v>127.8298284266109</v>
+        <v>127.235013712839</v>
       </c>
     </row>
     <row r="1687" spans="1:4">
@@ -25016,7 +25016,7 @@
         <v>34</v>
       </c>
       <c r="D1698">
-        <v>306.4058603813451</v>
+        <v>304.3891142125988</v>
       </c>
     </row>
     <row r="1699" spans="1:4">
@@ -25072,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="D1702">
-        <v>425.5838730830798</v>
+        <v>421.6722969286534</v>
       </c>
     </row>
     <row r="1703" spans="1:4">
@@ -25170,7 +25170,7 @@
         <v>45</v>
       </c>
       <c r="D1709">
-        <v>356.6472282820732</v>
+        <v>356.2093013538045</v>
       </c>
     </row>
     <row r="1710" spans="1:4">
@@ -25254,7 +25254,7 @@
         <v>51</v>
       </c>
       <c r="D1715">
-        <v>367.5475221501279</v>
+        <v>359.0682729975908</v>
       </c>
     </row>
     <row r="1716" spans="1:4">
@@ -25268,7 +25268,7 @@
         <v>52</v>
       </c>
       <c r="D1716">
-        <v>426.10045581509</v>
+        <v>413.1385179398894</v>
       </c>
     </row>
     <row r="1717" spans="1:4">
@@ -25282,7 +25282,7 @@
         <v>53</v>
       </c>
       <c r="D1717">
-        <v>471.5661891135843</v>
+        <v>474.8676406867459</v>
       </c>
     </row>
     <row r="1718" spans="1:4">
@@ -25324,7 +25324,7 @@
         <v>56</v>
       </c>
       <c r="D1720">
-        <v>489.5299143380078</v>
+        <v>488.3299679085902</v>
       </c>
     </row>
     <row r="1721" spans="1:4">
@@ -25366,7 +25366,7 @@
         <v>59</v>
       </c>
       <c r="D1723">
-        <v>399.6127510199524</v>
+        <v>397.1692516311018</v>
       </c>
     </row>
     <row r="1724" spans="1:4">
@@ -25478,7 +25478,7 @@
         <v>67</v>
       </c>
       <c r="D1731">
-        <v>138.1044032178729</v>
+        <v>137.3418392656657</v>
       </c>
     </row>
     <row r="1732" spans="1:4">
@@ -26794,7 +26794,7 @@
         <v>161</v>
       </c>
       <c r="D1825">
-        <v>133.6520482585849</v>
+        <v>133.834895418145</v>
       </c>
     </row>
     <row r="1826" spans="1:4">
@@ -26822,7 +26822,7 @@
         <v>163</v>
       </c>
       <c r="D1827">
-        <v>108.1077925821672</v>
+        <v>109.2828054359617</v>
       </c>
     </row>
     <row r="1828" spans="1:4">
@@ -27074,7 +27074,7 @@
         <v>181</v>
       </c>
       <c r="D1845">
-        <v>158.9986235902514</v>
+        <v>159.0140507163888</v>
       </c>
     </row>
     <row r="1846" spans="1:4">
@@ -27452,7 +27452,7 @@
         <v>208</v>
       </c>
       <c r="D1872">
-        <v>930.8287820561061</v>
+        <v>890.2311928005203</v>
       </c>
     </row>
     <row r="1873" spans="1:4">
@@ -28530,7 +28530,7 @@
         <v>285</v>
       </c>
       <c r="D1949">
-        <v>104.3188191541502</v>
+        <v>106.4757872193676</v>
       </c>
     </row>
     <row r="1950" spans="1:4">
@@ -29118,7 +29118,7 @@
         <v>48</v>
       </c>
       <c r="D1991">
-        <v>744.8269736805511</v>
+        <v>765.5453651524273</v>
       </c>
     </row>
     <row r="1992" spans="1:4">
@@ -30980,7 +30980,7 @@
         <v>181</v>
       </c>
       <c r="D2124">
-        <v>151.0483963262834</v>
+        <v>154.1001584385017</v>
       </c>
     </row>
     <row r="2125" spans="1:4">
@@ -31358,7 +31358,7 @@
         <v>208</v>
       </c>
       <c r="D2151">
-        <v>930.8287820561061</v>
+        <v>890.2311928005203</v>
       </c>
     </row>
     <row r="2152" spans="1:4">
@@ -32436,7 +32436,7 @@
         <v>285</v>
       </c>
       <c r="D2228">
-        <v>104.3188191541502</v>
+        <v>106.4757872193676</v>
       </c>
     </row>
     <row r="2229" spans="1:4">
@@ -32548,7 +32548,7 @@
         <v>14</v>
       </c>
       <c r="D2236">
-        <v>580.2747035435415</v>
+        <v>580.3773250068075</v>
       </c>
     </row>
     <row r="2237" spans="1:4">
@@ -32590,7 +32590,7 @@
         <v>17</v>
       </c>
       <c r="D2239">
-        <v>130.42124386345</v>
+        <v>139.124332981448</v>
       </c>
     </row>
     <row r="2240" spans="1:4">
@@ -32730,7 +32730,7 @@
         <v>27</v>
       </c>
       <c r="D2249">
-        <v>118.9167738578792</v>
+        <v>118.9264157650845</v>
       </c>
     </row>
     <row r="2250" spans="1:4">
@@ -32856,7 +32856,7 @@
         <v>36</v>
       </c>
       <c r="D2258">
-        <v>1327.478468531939</v>
+        <v>1271.080510047515</v>
       </c>
     </row>
     <row r="2259" spans="1:4">
@@ -32884,7 +32884,7 @@
         <v>38</v>
       </c>
       <c r="D2260">
-        <v>927.2479840562397</v>
+        <v>919.282939048876</v>
       </c>
     </row>
     <row r="2261" spans="1:4">
@@ -35264,7 +35264,7 @@
         <v>208</v>
       </c>
       <c r="D2430">
-        <v>930.8287820561061</v>
+        <v>890.2311928005203</v>
       </c>
     </row>
     <row r="2431" spans="1:4">
@@ -36118,7 +36118,7 @@
         <v>269</v>
       </c>
       <c r="D2491">
-        <v>149.5766008947996</v>
+        <v>150.4958595667606</v>
       </c>
     </row>
     <row r="2492" spans="1:4">
@@ -36342,7 +36342,7 @@
         <v>285</v>
       </c>
       <c r="D2507">
-        <v>104.3188191541502</v>
+        <v>106.4757872193676</v>
       </c>
     </row>
     <row r="2508" spans="1:4">
